--- a/Water/Water meter/water_meter_master.xlsx
+++ b/Water/Water meter/water_meter_master.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>Objective</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>Connect flow meter to Arduino UNO</t>
-  </si>
-  <si>
     <t>How The Sensor Works: The flow sensor contains an integrated magnetic hall effect sensor that outputs an electrical pulse with every revolution.</t>
   </si>
   <si>
@@ -120,15 +117,9 @@
     <t>GND(black) to GND of Arduino UNO</t>
   </si>
   <si>
-    <t>Connect LCD to Arduino UNO</t>
-  </si>
-  <si>
     <t>How the output device works: Liquid Crystal Display(LCD) is a flat panel display that uses the light modulating properties of liquid crystals.</t>
   </si>
   <si>
-    <t>Code- Address,text</t>
-  </si>
-  <si>
     <t>LCD pins(4)- Vcc, GND, SDA, SCL</t>
   </si>
   <si>
@@ -151,6 +142,33 @@
   </si>
   <si>
     <t>Boxing</t>
+  </si>
+  <si>
+    <t>Attach flow meter to tap</t>
+  </si>
+  <si>
+    <t>Connect the LCD to Arduino UNO</t>
+  </si>
+  <si>
+    <t>Connect the flow meter to Arduino UNO</t>
+  </si>
+  <si>
+    <t>To find the address upload the address sketch.</t>
+  </si>
+  <si>
+    <t>To test the working of the lcd upload the sketch after updating the address.</t>
+  </si>
+  <si>
+    <t>Address sketch</t>
+  </si>
+  <si>
+    <t>To test the working of the flow sensor upload the sketch.</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Sketch</t>
   </si>
 </sst>
 </file>
@@ -645,7 +663,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C4">
         <v>399</v>
@@ -708,10 +726,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,98 +758,137 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>2</v>
       </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
       <c r="C10" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D8" r:id="rId1"/>
+    <hyperlink ref="D9" r:id="rId2" display="Subsketch"/>
+    <hyperlink ref="D16" r:id="rId3" display="Sub-sketch"/>
+    <hyperlink ref="D18" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Water/Water meter/water_meter_master.xlsx
+++ b/Water/Water meter/water_meter_master.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
   <si>
     <t>Objective</t>
   </si>
@@ -111,9 +111,6 @@
     <t>Data pin(yellow) to D2(digital pin on Arduino UNO)</t>
   </si>
   <si>
-    <t>Vcc(red) to 5V of Arduino UNO</t>
-  </si>
-  <si>
     <t>GND(black) to GND of Arduino UNO</t>
   </si>
   <si>
@@ -169,13 +166,25 @@
   </si>
   <si>
     <t>Sketch</t>
+  </si>
+  <si>
+    <t>Vcc(red) to 3.3V of Arduino UNO</t>
+  </si>
+  <si>
+    <t>i2c?</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Pending</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +204,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -221,7 +237,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -231,6 +247,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -538,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,12 +569,12 @@
     <col min="2" max="2" width="21.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -563,7 +582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -571,33 +590,52 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="B8" s="7" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -663,7 +701,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <v>399</v>
@@ -728,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,7 +779,7 @@
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
@@ -763,51 +801,51 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -815,7 +853,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>27</v>
@@ -833,12 +871,12 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -848,10 +886,10 @@
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -859,7 +897,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="3"/>
     </row>
@@ -868,10 +906,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -879,7 +917,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Water/Water meter/water_meter_master.xlsx
+++ b/Water/Water meter/water_meter_master.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t>Objective</t>
   </si>
@@ -120,9 +120,6 @@
     <t>LCD pins(4)- Vcc, GND, SDA, SCL</t>
   </si>
   <si>
-    <t>Vcc of LCD to D2(digital pin on Arduino UNO)</t>
-  </si>
-  <si>
     <t>GND of LCD to GND of Arduino UNO</t>
   </si>
   <si>
@@ -174,10 +171,19 @@
     <t>i2c?</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>Pending</t>
+  </si>
+  <si>
+    <t>Vcc of LCD to 5V on Arduino UNO</t>
+  </si>
+  <si>
+    <t>LiquidCrystal_PCF8574</t>
+  </si>
+  <si>
+    <t>Wire</t>
+  </si>
+  <si>
+    <t>Install the required libraries.</t>
   </si>
 </sst>
 </file>
@@ -560,7 +566,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,7 +609,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -611,7 +620,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -622,7 +631,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -630,7 +639,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -701,7 +710,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>399</v>
@@ -767,7 +776,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,7 +810,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>32</v>
@@ -814,118 +823,121 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C15" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>48</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1"/>
-    <hyperlink ref="D9" r:id="rId2" display="Subsketch"/>
-    <hyperlink ref="D16" r:id="rId3" display="Sub-sketch"/>
-    <hyperlink ref="D18" r:id="rId4"/>
+    <hyperlink ref="D9" r:id="rId1"/>
+    <hyperlink ref="D10" r:id="rId2" display="Subsketch"/>
+    <hyperlink ref="D17" r:id="rId3" display="Sub-sketch"/>
+    <hyperlink ref="D19" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
